--- a/Config/Translation_habitat.xlsx
+++ b/Config/Translation_habitat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Data\SInNS\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19C8373-6F05-4168-9268-C6015B7B2B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="6348" yWindow="2172" windowWidth="23040" windowHeight="12120" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>origTerm</t>
   </si>
@@ -115,12 +121,27 @@
   </si>
   <si>
     <t>terrestrial; brackish; marine</t>
+  </si>
+  <si>
+    <t>marine; terrestrial</t>
+  </si>
+  <si>
+    <t>marine; terrestrial; freshwater</t>
+  </si>
+  <si>
+    <t>marine; freshwater</t>
+  </si>
+  <si>
+    <t>marine; brackish</t>
+  </si>
+  <si>
+    <t>marine; freshwater; brackish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -167,14 +188,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,20 +481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625"/>
-    <col min="2" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="33.109375"/>
+    <col min="2" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -486,7 +510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -494,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -502,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -510,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -518,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -526,75 +550,115 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
     </row>
